--- a/BaoCao_SystemTest_ProductAdmin.xlsx
+++ b/BaoCao_SystemTest_ProductAdmin.xlsx
@@ -41,15 +41,15 @@
     <t>Thêm sản phẩm mới</t>
   </si>
   <si>
-    <t>1. Menu SP -&gt; Thêm mới
-2. Điền form
+    <t>1. Điều hướng đến Quản lý SP -&gt; Thêm mới
+2. Điền form thông tin SP
 3. Lưu &amp; Tìm ở trang cuối</t>
   </si>
   <si>
-    <t>Name: Ao Test Auto 1764751020925</t>
-  </si>
-  <si>
-    <t>Sản phẩm mới xuất hiện trong danh sách</t>
+    <t>Name: Ao Test Auto 1764923200090, Price: 500000</t>
+  </si>
+  <si>
+    <t>Sản phẩm mới xuất hiện trong danh sách (có hỗ trợ phân trang)</t>
   </si>
   <si>
     <t>Tìm thấy SP: true</t>
@@ -64,15 +64,15 @@
     <t>Tìm kiếm sản phẩm</t>
   </si>
   <si>
-    <t>1. Vào trang DS
-2. Nhập tên SP
+    <t>1. Điều hướng đến trang DS
+2. Nhập tên SP vừa tạo vào ô tìm kiếm
 3. Check kết quả</t>
   </si>
   <si>
-    <t>Keyword: Ao Test Auto 1764751020925</t>
-  </si>
-  <si>
-    <t>Hiển thị đúng sản phẩm</t>
+    <t>Keyword: Ao Test Auto 1764923200090</t>
+  </si>
+  <si>
+    <t>Hiển thị đúng sản phẩm (chỉ 1 kết quả)</t>
   </si>
   <si>
     <t>Tìm thấy kết quả: true</t>
@@ -84,15 +84,15 @@
     <t>Sửa giá sản phẩm</t>
   </si>
   <si>
-    <t>1. Tìm SP (có phân trang)
+    <t>1. Tìm SP
 2. Click Sửa
-3. Đổi giá -&gt; Lưu</t>
+3. Đổi giá thành 1000000 -&gt; Lưu</t>
   </si>
   <si>
     <t>Price mới: 1000000</t>
   </si>
   <si>
-    <t>Giá tiền cập nhật thành công</t>
+    <t>Giá tiền cập nhật thành công (1,000,000)</t>
   </si>
   <si>
     <t>Page chứa giá mới: true</t>
@@ -109,10 +109,10 @@
 3. Confirm Alert</t>
   </si>
   <si>
-    <t>Target: Ao Test Auto 1764751020925</t>
-  </si>
-  <si>
-    <t>Sản phẩm biến mất</t>
+    <t>Target: Ao Test Auto 1764923200090</t>
+  </si>
+  <si>
+    <t>Sản phẩm biến mất khỏi danh sách</t>
   </si>
   <si>
     <t>Vẫn tìm thấy sau khi xóa: false</t>
@@ -201,9 +201,9 @@
   <cols>
     <col min="1" max="1" width="12.68359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.3359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.70703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="36.5234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="37.5859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.6015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="47.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="57.859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="28.09375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
